--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBA8F5-3197-4916-9036-71C900F0E25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31736366-8700-49D3-A036-54D4A4264B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3000" windowWidth="17280" windowHeight="9960" firstSheet="49" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1584" windowWidth="17280" windowHeight="9960" firstSheet="44" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -34,36 +34,40 @@
     <sheet name="SendProposalWithoutBill" sheetId="21" r:id="rId19"/>
     <sheet name="ApploginChamp" sheetId="22" r:id="rId20"/>
     <sheet name="ApploginVendor" sheetId="27" r:id="rId21"/>
-    <sheet name="JobApplicationApproval" sheetId="26" r:id="rId22"/>
-    <sheet name="JobApplicationReject" sheetId="28" r:id="rId23"/>
-    <sheet name="createNewClient" sheetId="29" r:id="rId24"/>
-    <sheet name="verify_NameError" sheetId="30" r:id="rId25"/>
-    <sheet name="verify_PhoneError" sheetId="31" r:id="rId26"/>
-    <sheet name="verify_EmailError" sheetId="32" r:id="rId27"/>
-    <sheet name="ViewtaskPage" sheetId="33" r:id="rId28"/>
-    <sheet name="CreateworkorderPage" sheetId="34" r:id="rId29"/>
-    <sheet name="verify_LocationError" sheetId="35" r:id="rId30"/>
-    <sheet name="verify_DateError" sheetId="36" r:id="rId31"/>
-    <sheet name="verify_StarttimeError" sheetId="37" r:id="rId32"/>
-    <sheet name="verify_EndtimeError" sheetId="38" r:id="rId33"/>
-    <sheet name="createProjectForAgencies" sheetId="39" r:id="rId34"/>
-    <sheet name="CreateProjectInvalidEnterprise" sheetId="40" r:id="rId35"/>
-    <sheet name="CreateProjectInvalidProjectTitl" sheetId="41" r:id="rId36"/>
-    <sheet name="CreateProjectInvalidProjectDesc" sheetId="42" r:id="rId37"/>
-    <sheet name="CreateProjectInvalidFieldName" sheetId="43" r:id="rId38"/>
-    <sheet name="CreateProjectInvalidFrequency" sheetId="44" r:id="rId39"/>
-    <sheet name="CreateProjectInvalidRadius" sheetId="45" r:id="rId40"/>
-    <sheet name="ProjectApprovalAgencies" sheetId="46" r:id="rId41"/>
-    <sheet name="ExistingInvalidEnterprise" sheetId="47" r:id="rId42"/>
-    <sheet name="AcceptRejectClients" sheetId="48" r:id="rId43"/>
-    <sheet name="AcceptRejectInvalidEnterprise" sheetId="49" r:id="rId44"/>
-    <sheet name="AcceptRejectInvalidProjectType" sheetId="50" r:id="rId45"/>
-    <sheet name="AcceptRejectInvalidProjectTitle" sheetId="51" r:id="rId46"/>
-    <sheet name="AcceptRejectInvalidProjectDesc" sheetId="52" r:id="rId47"/>
-    <sheet name="AcceptRejectInvalidFrequency" sheetId="53" r:id="rId48"/>
-    <sheet name="AcceptRejectInvalidRadius" sheetId="54" r:id="rId49"/>
-    <sheet name="ProjectClientInvalidEnterprise" sheetId="56" r:id="rId50"/>
-    <sheet name="LoginEnterprise" sheetId="57" r:id="rId51"/>
+    <sheet name="ApplicationAgencyAccept" sheetId="26" r:id="rId22"/>
+    <sheet name="ApplicationAgencyReject" sheetId="61" r:id="rId23"/>
+    <sheet name="ApplicationEnterpriseAccept" sheetId="59" r:id="rId24"/>
+    <sheet name="ApplicationEnterpriseReject" sheetId="60" r:id="rId25"/>
+    <sheet name="JobApplicationReject" sheetId="28" r:id="rId26"/>
+    <sheet name="createNewClient" sheetId="29" r:id="rId27"/>
+    <sheet name="verify_NameError" sheetId="30" r:id="rId28"/>
+    <sheet name="verify_PhoneError" sheetId="31" r:id="rId29"/>
+    <sheet name="verify_EmailError" sheetId="32" r:id="rId30"/>
+    <sheet name="ViewtaskPage" sheetId="33" r:id="rId31"/>
+    <sheet name="CreateworkorderPage" sheetId="34" r:id="rId32"/>
+    <sheet name="verify_LocationError" sheetId="35" r:id="rId33"/>
+    <sheet name="verify_DateError" sheetId="36" r:id="rId34"/>
+    <sheet name="verify_StarttimeError" sheetId="37" r:id="rId35"/>
+    <sheet name="verify_EndtimeError" sheetId="38" r:id="rId36"/>
+    <sheet name="createProjectForAgencies" sheetId="39" r:id="rId37"/>
+    <sheet name="CreateProjectInvalidEnterprise" sheetId="40" r:id="rId38"/>
+    <sheet name="CreateProjectInvalidProjectTitl" sheetId="41" r:id="rId39"/>
+    <sheet name="CreateProjectInvalidProjectDesc" sheetId="42" r:id="rId40"/>
+    <sheet name="CreateProjectInvalidFieldName" sheetId="43" r:id="rId41"/>
+    <sheet name="CreateProjectInvalidFrequency" sheetId="44" r:id="rId42"/>
+    <sheet name="CreateProjectInvalidRadius" sheetId="45" r:id="rId43"/>
+    <sheet name="ProjectApprovalAgencies" sheetId="46" r:id="rId44"/>
+    <sheet name="ExistingInvalidEnterprise" sheetId="47" r:id="rId45"/>
+    <sheet name="AcceptRejectClients" sheetId="48" r:id="rId46"/>
+    <sheet name="AcceptRejectInvalidEnterprise" sheetId="49" r:id="rId47"/>
+    <sheet name="AcceptRejectInvalidProjectType" sheetId="50" r:id="rId48"/>
+    <sheet name="AcceptRejectInvalidProjectTitle" sheetId="51" r:id="rId49"/>
+    <sheet name="AcceptRejectInvalidProjectDesc" sheetId="52" r:id="rId50"/>
+    <sheet name="AcceptRejectInvalidFrequency" sheetId="53" r:id="rId51"/>
+    <sheet name="AcceptRejectInvalidRadius" sheetId="54" r:id="rId52"/>
+    <sheet name="ProjectClientInvalidEnterprise" sheetId="56" r:id="rId53"/>
+    <sheet name="LoginEnterprise" sheetId="57" r:id="rId54"/>
+    <sheet name="loginDhruviEnterprise" sheetId="58" r:id="rId55"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -75,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="133">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -380,18 +384,9 @@
     <t>rtyehsgd@gmail.com</t>
   </si>
   <si>
-    <t>Workorder18</t>
-  </si>
-  <si>
     <t>Please select enterprise</t>
   </si>
   <si>
-    <t>hhhfhf</t>
-  </si>
-  <si>
-    <t>jhhgu@gmail.com</t>
-  </si>
-  <si>
     <t>ExpectedMessage</t>
   </si>
   <si>
@@ -438,6 +433,51 @@
   </si>
   <si>
     <t>ankur@gmail.com</t>
+  </si>
+  <si>
+    <t>EnterPassword</t>
+  </si>
+  <si>
+    <t>dhruviEnterpriseTeam@gmail.com</t>
+  </si>
+  <si>
+    <t>Enterprise*383</t>
+  </si>
+  <si>
+    <t>Job application status updated…</t>
+  </si>
+  <si>
+    <t>SearchAgency</t>
+  </si>
+  <si>
+    <t>August New Agency</t>
+  </si>
+  <si>
+    <t>EnterAgencyEmail</t>
+  </si>
+  <si>
+    <t>Workorbit Automation [55]</t>
+  </si>
+  <si>
+    <t>Workorbit Automation[55]</t>
+  </si>
+  <si>
+    <t>Work order approved successfully!</t>
+  </si>
+  <si>
+    <t>Yash Project</t>
+  </si>
+  <si>
+    <t>NewEnterpriseEmail</t>
+  </si>
+  <si>
+    <t>Project Status Updated Successfully!</t>
+  </si>
+  <si>
+    <t>YASHCLIENT333</t>
+  </si>
+  <si>
+    <t>YashCLient32@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -853,7 +893,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -1925,13 +1965,123 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32BBC2-8645-49F4-9228-D5DA6CD74BBF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE8D4F1-8ABB-4CDC-8DEE-D901117FDFE8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5004CB2-7E7D-4C6D-A5EE-11F8BB1E791A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250B3F6-4918-4398-AC3E-A7EFE64E1EFE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1948,32 +2098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250B3F6-4918-4398-AC3E-A7EFE64E1EFE}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD2750-EED1-428F-8388-205265444F9E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2032,7 +2157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8AB26-0B61-4C59-8DDA-093F26B52844}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2089,7 +2214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E503DC47-B116-4D17-AE19-50721CC0959C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2142,136 +2267,6 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9F792A1F-F435-44CF-B4C3-28CC09376CFA}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F07CCA-8A4F-4705-A3BC-EE013FD28865}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8828888221</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E363F-D977-48CD-A149-24DD684993FA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="106.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7BB7BEC7-7F1D-4B6A-A3EA-0E5EA8BCCBE9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1BBAAD-6678-4E19-8B13-58152367CADD}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.399999999999999">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2419,6 +2414,136 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F07CCA-8A4F-4705-A3BC-EE013FD28865}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8828888221</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E363F-D977-48CD-A149-24DD684993FA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="106.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7BB7BEC7-7F1D-4B6A-A3EA-0E5EA8BCCBE9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1BBAAD-6678-4E19-8B13-58152367CADD}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C57AC0-C7C3-475F-B533-0FDB60E6D5B3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2460,7 +2585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C11A08-48AD-4E99-ABB8-719FE09B87FE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2499,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832B071D-2BB8-4CF9-AEA5-5BD898CC6F36}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2538,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E758CD7-433A-4255-9C68-74245BB828C9}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2576,7 +2701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C52D7E-DA4B-4987-81FF-4F055ABBBFD8}">
   <dimension ref="A1:W2"/>
   <sheetViews>
@@ -2762,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81813E98-D1C4-4013-89E6-5B591B0CE9C4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2828,7 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0834A119-F09C-48DA-8867-7EB5777391E7}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2905,7 +3030,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7133107-D6BF-4563-B891-4F611F5AEE22}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39026464-7D8D-41F2-BDDB-85661F9F3AE1}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2982,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAFF7CB-EE50-4142-8865-333ED5F466FF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -3116,7 +3269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76D7EC-F434-4638-ABDC-C5C74F9D35AE}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -3251,35 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7133107-D6BF-4563-B891-4F611F5AEE22}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA73E5F2-1FE0-463D-A024-831C739601AA}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -3416,17 +3541,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE61F3-0725-4CCD-B968-91BBE06FC3B1}">
-  <dimension ref="A1:U2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
@@ -3444,12 +3569,17 @@
     <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="17.399999999999999">
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3504,25 +3634,43 @@
       <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.6">
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>112233</v>
+        <v>1234</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -3570,27 +3718,46 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="U2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45534</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="S1:U2">
+      <c r="Y2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9D1D2951-64D5-4ADD-AF70-712AB554B961}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3F25C-C62B-4C6F-A447-8547605FC178}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3610,53 +3777,56 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
-  <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26">
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3673,78 +3843,87 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="Z1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="8" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B2" s="8">
-        <v>4652435055</v>
+        <v>8383876319</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3753,79 +3932,88 @@
         <v>72</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="8">
+      <c r="J2" s="8">
         <v>112233</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="8">
+      <c r="N2" s="8">
         <v>3</v>
       </c>
-      <c r="M2" s="10">
+      <c r="O2" s="10">
         <v>45537</v>
       </c>
-      <c r="N2" s="10">
+      <c r="P2" s="10">
         <v>45545</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="8">
+      <c r="R2" s="8">
         <v>10</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="S2" s="8">
         <v>50</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="8">
+      <c r="V2" s="8">
         <v>50000</v>
       </c>
-      <c r="U2" s="8">
+      <c r="W2" s="8">
         <v>1</v>
       </c>
-      <c r="V2" s="8">
+      <c r="X2" s="8">
         <v>5</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="10">
-        <v>45534</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>84</v>
+      <c r="Z2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB2">
+        <v>123456</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6ABDDF0-7DD7-4FD5-A9C5-8F41DAD9B480}"/>
-    <hyperlink ref="J2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{227D6DA8-3D36-4217-B200-0F362C82C774}"/>
+    <hyperlink ref="L2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{227D6DA8-3D36-4217-B200-0F362C82C774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEAC0FF-286F-46B7-BBAA-D4CA6606D8D6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3860,18 +4048,18 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8">
         <v>4634324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3880,7 +4068,7 @@
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +4080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74E19EC-BAD7-45A6-BDC7-BE2822865102}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3932,13 +4120,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="8">
         <v>4621224055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3958,7 +4146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48AFEB9-544F-406E-A022-9A237CD1A13E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -4006,13 +4194,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8">
         <v>4324524055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4035,7 +4223,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3898C06-4442-4974-B7E8-CA497002BB2B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345C9F5-DEB8-45C8-85C9-47F87B6DE846}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -4083,13 +4310,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2" s="8">
         <v>4324324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4112,7 +4339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46CF0F0-FF27-4B98-AE80-708D2DD33310}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -4192,13 +4419,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="8">
         <v>6666324055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4249,7 +4476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FA8DCD-81DD-4A5C-B647-C520CEAD1ACF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -4325,13 +4552,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="8">
         <v>6709824055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4382,46 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3898C06-4442-4974-B7E8-CA497002BB2B}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B0B688-C067-4A43-B4C1-B4910B6DCB83}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4456,18 +4644,18 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" s="8">
         <v>4630987055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -4476,7 +4664,7 @@
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4487,11 +4675,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B168306-E92A-46FA-9930-4BF54AE7CCAF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4511,7 +4699,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -4521,6 +4709,42 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BA607E3B-20F4-4174-864E-83C960003DC0}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8483737-F7D2-4A8C-8B06-512165C3561C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31736366-8700-49D3-A036-54D4A4264B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAC1550-3DC7-4BE2-9AA8-74D5FB1FB8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1584" windowWidth="17280" windowHeight="9960" firstSheet="44" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2532" yWindow="1908" windowWidth="17280" windowHeight="9960" firstSheet="61" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -68,6 +68,14 @@
     <sheet name="ProjectClientInvalidEnterprise" sheetId="56" r:id="rId53"/>
     <sheet name="LoginEnterprise" sheetId="57" r:id="rId54"/>
     <sheet name="loginDhruviEnterprise" sheetId="58" r:id="rId55"/>
+    <sheet name="CreateProjectEnterpriseData" sheetId="62" r:id="rId56"/>
+    <sheet name="EnterpriseImproperProjectType" sheetId="63" r:id="rId57"/>
+    <sheet name="EnterpriseInvalidProjectDesc" sheetId="64" r:id="rId58"/>
+    <sheet name="EnterpriseInvalidFieldName" sheetId="65" r:id="rId59"/>
+    <sheet name="EnterpriseInvalidFieldType" sheetId="66" r:id="rId60"/>
+    <sheet name="EnterpriseInvalidFrequency" sheetId="67" r:id="rId61"/>
+    <sheet name="EnterpriseInvalidRadius" sheetId="68" r:id="rId62"/>
+    <sheet name="EnterpriseInvalidProjectTitle" sheetId="69" r:id="rId63"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -79,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="133">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -468,9 +476,6 @@
     <t>Yash Project</t>
   </si>
   <si>
-    <t>NewEnterpriseEmail</t>
-  </si>
-  <si>
     <t>Project Status Updated Successfully!</t>
   </si>
   <si>
@@ -478,6 +483,9 @@
   </si>
   <si>
     <t>YashCLient32@gmail.com</t>
+  </si>
+  <si>
+    <t>Congratulations! The project is Created.</t>
   </si>
 </sst>
 </file>
@@ -916,7 +924,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2273,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE961D46-E6B2-410A-BCF0-B9BC1E0914E2}">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2291,9 +2299,10 @@
     <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
+    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2348,8 +2357,11 @@
       <c r="R1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2403,6 +2415,9 @@
       </c>
       <c r="R2" t="s">
         <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3787,10 +3802,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3800,33 +3815,32 @@
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -3843,87 +3857,84 @@
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="Y1" t="s">
+        <v>122</v>
+      </c>
       <c r="Z1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="8">
         <v>8383876319</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3931,83 +3942,80 @@
       <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="F2" s="8">
         <v>123456</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="H2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="8">
+      <c r="I2" s="8">
         <v>112233</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="8">
+      <c r="M2" s="8">
         <v>3</v>
       </c>
+      <c r="N2" s="10">
+        <v>45537</v>
+      </c>
       <c r="O2" s="10">
-        <v>45537</v>
-      </c>
-      <c r="P2" s="10">
         <v>45545</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="Q2" s="8">
+        <v>10</v>
+      </c>
       <c r="R2" s="8">
-        <v>10</v>
-      </c>
-      <c r="S2" s="8">
         <v>50</v>
       </c>
+      <c r="S2" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="T2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="U2" s="8">
+        <v>50000</v>
+      </c>
       <c r="V2" s="8">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="W2" s="8">
-        <v>1</v>
-      </c>
-      <c r="X2" s="8">
         <v>5</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="Y2" t="s">
+        <v>123</v>
+      </c>
       <c r="Z2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA2" t="s">
         <v>115</v>
       </c>
-      <c r="AB2">
+      <c r="AA2">
         <v>123456</v>
       </c>
-      <c r="AC2" t="s">
-        <v>130</v>
+      <c r="AB2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6ABDDF0-7DD7-4FD5-A9C5-8F41DAD9B480}"/>
-    <hyperlink ref="L2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{227D6DA8-3D36-4217-B200-0F362C82C774}"/>
+    <hyperlink ref="K2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{227D6DA8-3D36-4217-B200-0F362C82C774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4018,7 +4026,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4749,12 +4757,327 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA87A915-C7BE-422B-A092-1049B1E9ED44}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B783FF12-884C-4317-9AFA-3D05F8FBDDED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6693BB1-7EC9-47E6-9012-0810E16FC4BF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76882555-1842-49EC-BCB9-8125EF36751B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF5F809-C50B-464C-B347-F446AB1585F9}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3BB8C0B7-9F3D-406A-A6C8-BAB0E197D063}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D85BB9-DBD4-4F32-9778-B829107BA15C}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4848,12 +5171,340 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2315D5-75BB-49E3-BEEE-25937632A3E2}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B463FCC6-6DFA-4599-9D77-F3CD6C7CD538}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D1170-1D31-4C3F-8532-F424B03E3199}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{02B31D6A-BFEC-4CE7-993E-DDF37172A5EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177B8994-7FCB-45E1-8A1D-165238A2A2F7}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{EB5289B9-DDF0-4ED4-BA24-32302EFD4449}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009ED5BE-2E1F-4AA7-A990-4EE333199D29}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1C7130-F225-4D11-A4B5-0BA6AFD00335}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4941,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65ECB3C-3CD2-4687-9133-B968640F2EB8}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
@@ -5043,7 +5694,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="B1" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAC1550-3DC7-4BE2-9AA8-74D5FB1FB8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F28D677-732F-425F-A576-6DFF398D92A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="1908" windowWidth="17280" windowHeight="9960" firstSheet="61" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1956" yWindow="3120" windowWidth="17280" windowHeight="9960" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <sheet name="verify_StarttimeError" sheetId="37" r:id="rId35"/>
     <sheet name="verify_EndtimeError" sheetId="38" r:id="rId36"/>
     <sheet name="createProjectForAgencies" sheetId="39" r:id="rId37"/>
-    <sheet name="CreateProjectInvalidEnterprise" sheetId="40" r:id="rId38"/>
+    <sheet name="CreateProjectInvalidProjectType" sheetId="40" r:id="rId38"/>
     <sheet name="CreateProjectInvalidProjectTitl" sheetId="41" r:id="rId39"/>
     <sheet name="CreateProjectInvalidProjectDesc" sheetId="42" r:id="rId40"/>
     <sheet name="CreateProjectInvalidFieldName" sheetId="43" r:id="rId41"/>
@@ -76,6 +76,12 @@
     <sheet name="EnterpriseInvalidFrequency" sheetId="67" r:id="rId61"/>
     <sheet name="EnterpriseInvalidRadius" sheetId="68" r:id="rId62"/>
     <sheet name="EnterpriseInvalidProjectTitle" sheetId="69" r:id="rId63"/>
+    <sheet name="ProjectApproveInvalidProjectTyp" sheetId="71" r:id="rId64"/>
+    <sheet name="ProjectApprovInvalidProjectTltl" sheetId="72" r:id="rId65"/>
+    <sheet name="ProjectApprovInvalidProjectDesc" sheetId="73" r:id="rId66"/>
+    <sheet name="ProjectApprovInvalidFieldName" sheetId="74" r:id="rId67"/>
+    <sheet name="ProjectApprovInvalidFrequency" sheetId="75" r:id="rId68"/>
+    <sheet name="ProjectApprovInvalidRadius" sheetId="76" r:id="rId69"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -87,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="140">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -486,6 +492,27 @@
   </si>
   <si>
     <t>Congratulations! The project is Created.</t>
+  </si>
+  <si>
+    <t>EnterpriseLogin</t>
+  </si>
+  <si>
+    <t>EnterprisePassword</t>
+  </si>
+  <si>
+    <t>Manage Job Application Access [1]</t>
+  </si>
+  <si>
+    <t>enterpriseLogin</t>
+  </si>
+  <si>
+    <t>enterprisePassword</t>
+  </si>
+  <si>
+    <t>agencyLogin</t>
+  </si>
+  <si>
+    <t>agencyOTP</t>
   </si>
 </sst>
 </file>
@@ -495,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +561,24 @@
       <color theme="1"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF080A52"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -556,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -574,12 +619,56 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1970,113 +2059,373 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D6504-B8C6-4E32-95E1-E521780BD3E4}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8376972312</v>
+      </c>
+      <c r="G2" s="11">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="J2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32BBC2-8645-49F4-9228-D5DA6CD74BBF}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8376972312</v>
+      </c>
+      <c r="G2" s="11">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="J2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE8D4F1-8ABB-4CDC-8DEE-D901117FDFE8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8376972312</v>
+      </c>
+      <c r="G2" s="11">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5004CB2-7E7D-4C6D-A5EE-11F8BB1E791A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8376972312</v>
+      </c>
+      <c r="G2" s="11">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2518,7 +2867,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2552,7 +2901,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2907,7 +3256,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3762,7 +4111,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9D1D2951-64D5-4ADD-AF70-712AB554B961}"/>
@@ -4912,7 +5261,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4940,7 +5289,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4979,7 +5328,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5263,7 +5612,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5364,7 +5713,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5464,8 +5813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009ED5BE-2E1F-4AA7-A990-4EE333199D29}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5495,6 +5844,412 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3545190-3E98-4DFC-8A83-33F0E8F12FB7}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DD90E8-6DEC-4434-B9D4-05470D487C82}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3488B6-DDBA-4D39-9477-2C32FF11B842}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4E472E-5BAF-4610-9454-7984E44DBD6F}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{51DE10F2-6793-4F54-9059-549C61FC4B99}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CD119B-7522-494B-9107-7CA6F4DD1642}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{7E13BB49-0E5C-4320-A075-C7422B79D468}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65575F7A-AB1E-489C-9E16-96BDE335081D}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{868FF878-19CC-4CC5-B908-4F692700B177}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F28D677-732F-425F-A576-6DFF398D92A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE68DF38-E3DE-4ED3-8550-3452F8682500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1956" yWindow="3120" windowWidth="17280" windowHeight="9960" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2424" windowWidth="17280" windowHeight="9960" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,13 +579,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -621,8 +633,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2088,10 +2100,10 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" t="s">
         <v>134</v>
       </c>
       <c r="F1" t="s">
@@ -2120,10 +2132,10 @@
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="11">
@@ -2144,7 +2156,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2154,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32BBC2-8645-49F4-9228-D5DA6CD74BBF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2181,10 +2193,10 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" t="s">
         <v>134</v>
       </c>
       <c r="F1" t="s">
@@ -2213,10 +2225,10 @@
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="11">
@@ -2237,7 +2249,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2247,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE8D4F1-8ABB-4CDC-8DEE-D901117FDFE8}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2261,7 +2273,7 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
@@ -2274,10 +2286,10 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" t="s">
         <v>134</v>
       </c>
       <c r="F1" t="s">
@@ -2306,10 +2318,10 @@
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="11">
@@ -2324,13 +2336,13 @@
       <c r="I2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="14" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2368,10 +2380,10 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" t="s">
         <v>134</v>
       </c>
       <c r="F1" t="s">
@@ -2400,10 +2412,10 @@
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="11">
@@ -2901,7 +2913,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4111,7 +4123,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9D1D2951-64D5-4ADD-AF70-712AB554B961}"/>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE68DF38-E3DE-4ED3-8550-3452F8682500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9E7F0-8375-4D0A-9DF0-EFCF84F99E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2424" windowWidth="17280" windowHeight="9960" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2376" yWindow="1020" windowWidth="17280" windowHeight="9960" firstSheet="69" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -82,6 +82,8 @@
     <sheet name="ProjectApprovInvalidFieldName" sheetId="74" r:id="rId67"/>
     <sheet name="ProjectApprovInvalidFrequency" sheetId="75" r:id="rId68"/>
     <sheet name="ProjectApprovInvalidRadius" sheetId="76" r:id="rId69"/>
+    <sheet name="AssignProjectVendorData" sheetId="78" r:id="rId70"/>
+    <sheet name="CreateProjectAssignVendor" sheetId="79" r:id="rId71"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -93,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="145">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -458,9 +460,6 @@
     <t>Enterprise*383</t>
   </si>
   <si>
-    <t>Job application status updated…</t>
-  </si>
-  <si>
     <t>SearchAgency</t>
   </si>
   <si>
@@ -485,9 +484,6 @@
     <t>Project Status Updated Successfully!</t>
   </si>
   <si>
-    <t>YASHCLIENT333</t>
-  </si>
-  <si>
     <t>YashCLient32@gmail.com</t>
   </si>
   <si>
@@ -513,6 +509,27 @@
   </si>
   <si>
     <t>agencyOTP</t>
+  </si>
+  <si>
+    <t>Job application status updated...</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>MobileResponsible</t>
+  </si>
+  <si>
+    <t>PersonName</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Selected vendor assigned successfully!</t>
+  </si>
+  <si>
+    <t>Assign Project to Vendor</t>
   </si>
 </sst>
 </file>
@@ -522,7 +539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,19 +602,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -613,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -634,7 +651,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1241,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDACBC94-543A-4AD0-8587-E5E2E3959052}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2074,7 +2092,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2087,7 +2105,7 @@
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
@@ -2101,10 +2119,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2113,10 +2131,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2127,7 +2145,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
@@ -2150,8 +2168,8 @@
       <c r="I2" s="6">
         <v>123456</v>
       </c>
-      <c r="J2" t="s">
-        <v>121</v>
+      <c r="J2" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2185,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2180,7 +2198,7 @@
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
@@ -2194,10 +2212,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2206,10 +2224,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2220,7 +2238,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
@@ -2243,8 +2261,8 @@
       <c r="I2" s="6">
         <v>123456</v>
       </c>
-      <c r="J2" t="s">
-        <v>121</v>
+      <c r="J2" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2259,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE8D4F1-8ABB-4CDC-8DEE-D901117FDFE8}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2273,7 +2291,7 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
@@ -2287,10 +2305,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2299,10 +2317,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2313,7 +2331,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
@@ -2337,7 +2355,7 @@
         <v>120</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2353,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5004CB2-7E7D-4C6D-A5EE-11F8BB1E791A}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2367,7 +2385,7 @@
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
@@ -2381,10 +2399,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2393,10 +2411,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2407,7 +2425,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
@@ -2430,8 +2448,8 @@
       <c r="I2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J2" t="s">
-        <v>121</v>
+      <c r="J2" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2796,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4011,10 +4029,10 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U1" t="s">
         <v>62</v>
@@ -4040,7 +4058,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -4094,7 +4112,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T2" t="s">
         <v>115</v>
@@ -4106,7 +4124,7 @@
         <v>45534</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>84</v>
@@ -4118,7 +4136,7 @@
         <v>120</v>
       </c>
       <c r="AA2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4165,16 +4183,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
@@ -4203,16 +4221,16 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4275,10 +4293,10 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA1" t="s">
         <v>62</v>
@@ -4289,16 +4307,16 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="8">
-        <v>8383876319</v>
+        <v>139</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>129</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4307,7 +4325,7 @@
         <v>123456</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>24</v>
@@ -4361,7 +4379,7 @@
         <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z2" t="s">
         <v>115</v>
@@ -4370,7 +4388,7 @@
         <v>123456</v>
       </c>
       <c r="AB2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6355,6 +6373,199 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB6CF95-7DCC-411E-A613-81E51BF82779}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB28864-FAB7-4FB9-93DA-E8EDDE2121F5}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{23D92CA9-9CC1-4B19-B6D3-8CE7C8BC508E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65ECB3C-3CD2-4687-9133-B968640F2EB8}">
   <dimension ref="A1:K2"/>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9E7F0-8375-4D0A-9DF0-EFCF84F99E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A3B07A-C676-41BC-84C1-C4173C16835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="1020" windowWidth="17280" windowHeight="9960" firstSheet="69" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="2328" windowWidth="17280" windowHeight="9960" firstSheet="51" activeTab="51" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="136">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -406,42 +406,9 @@
     <t>ExpectedMessage</t>
   </si>
   <si>
-    <t>xdfdse</t>
-  </si>
-  <si>
     <t>fgd@gmail.com</t>
   </si>
   <si>
-    <t>ghfh</t>
-  </si>
-  <si>
-    <t>ghfjdy@gmail.com</t>
-  </si>
-  <si>
-    <t>fgdhf</t>
-  </si>
-  <si>
-    <t>gh@gmail.com</t>
-  </si>
-  <si>
-    <t>ghfj@gmail.com</t>
-  </si>
-  <si>
-    <t>ghfdsdd</t>
-  </si>
-  <si>
-    <t>fgfhd</t>
-  </si>
-  <si>
-    <t>ghfjdd@gmail.com</t>
-  </si>
-  <si>
-    <t>fgrr</t>
-  </si>
-  <si>
-    <t>trtrttt@gmail.com</t>
-  </si>
-  <si>
     <t>test@agency.com</t>
   </si>
   <si>
@@ -530,6 +497,12 @@
   </si>
   <si>
     <t>Assign Project to Vendor</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Dwayne</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +993,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -2119,10 +2092,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2131,10 +2104,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2145,16 +2118,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2163,13 +2136,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I2" s="6">
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2212,10 +2185,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2224,10 +2197,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2238,16 +2211,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2256,13 +2229,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I2" s="6">
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2305,10 +2278,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2317,10 +2290,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2331,16 +2304,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2349,13 +2322,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2399,10 +2372,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2411,10 +2384,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2425,16 +2398,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2443,13 +2416,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2796,7 +2769,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4029,10 +4002,10 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="T1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="U1" t="s">
         <v>62</v>
@@ -4050,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="Z1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AA1" t="s">
         <v>102</v>
@@ -4058,7 +4031,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -4112,10 +4085,10 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="T2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="U2">
         <v>123456</v>
@@ -4124,19 +4097,19 @@
         <v>45534</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Z2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AA2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4221,16 +4194,16 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4293,10 +4266,10 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Z1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AA1" t="s">
         <v>62</v>
@@ -4307,13 +4280,13 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D2" s="8">
         <v>8756457685</v>
@@ -4325,7 +4298,7 @@
         <v>123456</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>24</v>
@@ -4379,16 +4352,16 @@
         <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Z2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AA2">
         <v>123456</v>
       </c>
       <c r="AB2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4405,31 +4378,31 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4440,16 +4413,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="8">
-        <v>4634324055</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4472,31 +4445,31 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4507,16 +4480,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="8">
-        <v>4621224055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4527,7 +4500,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{61FB811C-853F-4787-BD98-EF1AAE77AEE0}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{518B1498-7CD6-41ED-9756-B2691A4FC40C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4538,15 +4511,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
@@ -4555,16 +4528,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4581,16 +4554,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="8">
-        <v>4324524055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4604,7 +4577,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C02C9DBB-9C7D-41E5-92E0-828B02B7037C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9F6F7BA4-4E08-4893-AD23-AB88243F9287}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4654,33 +4627,33 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4697,16 +4670,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="8">
-        <v>4324324055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4720,7 +4693,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C953E137-0726-48F1-AEAA-5E4657B221BC}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A4FD6212-90A5-4C3B-A26F-DACE7A542D53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4730,16 +4703,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46CF0F0-FF27-4B98-AE80-708D2DD33310}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
@@ -4756,16 +4729,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4806,16 +4779,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="8">
-        <v>6666324055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4856,8 +4829,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{53208226-6C68-46B8-9FB3-69E02E8F0362}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{D03589B2-77BF-4B5D-9D6B-7D1A73FBAA41}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{D03589B2-77BF-4B5D-9D6B-7D1A73FBAA41}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{FA6F3B3F-FFAA-4681-A7B4-A130B20507DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4867,16 +4840,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FA8DCD-81DD-4A5C-B647-C520CEAD1ACF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
@@ -4889,16 +4862,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4939,16 +4912,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="8">
-        <v>6709824055</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
@@ -4989,8 +4962,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E6981B4B-51F5-4874-8292-BA0AF9543D51}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{CDBD26A4-F9D5-4C16-AEA8-92B9AEEDCE56}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{CDBD26A4-F9D5-4C16-AEA8-92B9AEEDCE56}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{9A265D59-CCA1-456C-A8ED-CCEE2217474C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5036,13 +5009,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8">
         <v>4630987055</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -5086,7 +5059,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -5120,15 +5093,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6393,7 +6366,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6405,7 +6378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB28864-FAB7-4FB9-93DA-E8EDDE2121F5}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
@@ -6495,7 +6468,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6555,7 +6528,7 @@
         <v>36</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A3B07A-C676-41BC-84C1-C4173C16835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8C879A-9FC0-47AB-A3D6-018D05A588ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2328" windowWidth="17280" windowHeight="9960" firstSheet="51" activeTab="51" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4152" yWindow="2688" windowWidth="17280" windowHeight="9960" firstSheet="71" activeTab="71" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,9 @@
     <sheet name="ProjectApprovInvalidRadius" sheetId="76" r:id="rId69"/>
     <sheet name="AssignProjectVendorData" sheetId="78" r:id="rId70"/>
     <sheet name="CreateProjectAssignVendor" sheetId="79" r:id="rId71"/>
+    <sheet name="JobApplicationVendorAcceptChamp" sheetId="80" r:id="rId72"/>
+    <sheet name="VendorLoginTest" sheetId="81" r:id="rId73"/>
+    <sheet name="JobApplicationVendorRejectChamp" sheetId="82" r:id="rId74"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -95,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="147">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -503,6 +506,39 @@
   </si>
   <si>
     <t>Dwayne</t>
+  </si>
+  <si>
+    <t>rohitsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Terms and Conditions</t>
+  </si>
+  <si>
+    <t>AdditionalTerms</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>EnterEmail</t>
+  </si>
+  <si>
+    <t>Assign Project To Vendor</t>
+  </si>
+  <si>
+    <t>VendorEmail</t>
+  </si>
+  <si>
+    <t>VendorOTP</t>
+  </si>
+  <si>
+    <t>ExpectedOutcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign Project To Vendor </t>
   </si>
 </sst>
 </file>
@@ -512,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +617,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -603,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -626,12 +668,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -971,7 +1034,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2065,7 +2128,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2147,7 +2210,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2240,7 +2303,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2333,7 +2396,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2427,7 +2490,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2904,7 +2967,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3913,7 +3976,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="V1" sqref="V1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4114,7 +4177,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9D1D2951-64D5-4ADD-AF70-712AB554B961}"/>
@@ -4642,7 +4705,7 @@
     <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>128</v>
       </c>
@@ -4840,7 +4903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FA8DCD-81DD-4A5C-B647-C520CEAD1ACF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5528,7 +5591,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6351,7 +6414,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6379,7 +6442,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6534,6 +6597,548 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{23D92CA9-9CC1-4B19-B6D3-8CE7C8BC508E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6605E610-F2F0-4733-8B9B-4273B40725C2}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2">
+        <v>1000</v>
+      </c>
+      <c r="W2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z2">
+        <v>123456</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45534</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC2">
+        <v>8376972313</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE2">
+        <v>123456</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AA1:AB2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{C709A1EE-64C3-418C-B44C-F820AF20129A}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{0FBB61E9-4EB9-436B-8B22-019DF03FD74A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2018FA48-A8C8-498C-BD38-75302BEB5C90}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DAD56998-DF93-4E97-A7D6-2FF0222F0BA5}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E737C190-D983-49D0-AD05-FADFCFDF9EA7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49773F7F-0874-49C9-AF89-9477015DE8FC}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>112233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2">
+        <v>1000</v>
+      </c>
+      <c r="W2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z2">
+        <v>123456</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>45534</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC2">
+        <v>8376972313</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE2">
+        <v>123456</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AA1:AB2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F7E15DAF-7F55-4351-9DD8-18B9D491313D}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{02572273-C570-4EEF-A61D-13323DD235A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8C879A-9FC0-47AB-A3D6-018D05A588ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B2064-29E2-4093-A465-110A39157498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="2688" windowWidth="17280" windowHeight="9960" firstSheet="71" activeTab="71" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="1980" windowWidth="17280" windowHeight="9960" firstSheet="51" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="140">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -379,30 +379,6 @@
     <t>Please select a valid end time</t>
   </si>
   <si>
-    <t>Ronaldino</t>
-  </si>
-  <si>
-    <t>ce7@gmail.com</t>
-  </si>
-  <si>
-    <t>Messi10</t>
-  </si>
-  <si>
-    <t>1010@gmail.com</t>
-  </si>
-  <si>
-    <t>NoOneLie</t>
-  </si>
-  <si>
-    <t>tester1212121212@gmail.com</t>
-  </si>
-  <si>
-    <t>rsrx71234</t>
-  </si>
-  <si>
-    <t>rtyehsgd@gmail.com</t>
-  </si>
-  <si>
     <t>Please select enterprise</t>
   </si>
   <si>
@@ -415,9 +391,6 @@
     <t>test@agency.com</t>
   </si>
   <si>
-    <t>fgdgfjd</t>
-  </si>
-  <si>
     <t>ankur@gmail.com</t>
   </si>
   <si>
@@ -539,6 +512,12 @@
   </si>
   <si>
     <t xml:space="preserve">Assign Project To Vendor </t>
+  </si>
+  <si>
+    <t>Field Name is required.</t>
+  </si>
+  <si>
+    <t>expectedErrorMessage</t>
   </si>
 </sst>
 </file>
@@ -548,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +602,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -645,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -669,6 +654,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1056,7 +1042,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -2155,10 +2141,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2167,10 +2153,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2181,16 +2167,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2199,13 +2185,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I2" s="6">
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2248,10 +2234,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2260,10 +2246,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2274,16 +2260,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2292,13 +2278,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I2" s="6">
         <v>123456</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2341,10 +2327,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2353,10 +2339,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2367,16 +2353,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2385,13 +2371,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2435,10 +2421,10 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -2447,10 +2433,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -2461,16 +2447,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11">
         <v>8376972312</v>
@@ -2479,13 +2465,13 @@
         <v>123456</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2585,45 +2571,45 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
+      <c r="D1" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5">
-        <v>9722288802</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
@@ -2631,7 +2617,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{ED0FD01D-8005-485E-B0EE-ED55D2B3A554}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8DEA92D1-C140-4050-B42E-3D1B691A34ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2773,7 +2759,7 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2832,7 +2818,7 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +3122,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3166,20 +3152,20 @@
     <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3237,20 +3223,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5555456522</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3310,8 +3296,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6EAD9221-B9F7-4BAB-B6CA-D76533E11CA0}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{1850B3FD-C857-40F1-B423-F47138E75475}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{1850B3FD-C857-40F1-B423-F47138E75475}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{193301C6-69C5-44D8-92FC-E9F15BDD04ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3322,53 +3308,53 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8765234156</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3377,7 +3363,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A1B9C375-893B-496D-8CB7-A9D2BF4EBF66}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{401F5E3F-16A2-414B-8569-62DCC9A3D8B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3388,35 +3374,35 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3429,20 +3415,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8765234156</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G2" t="s">
@@ -3454,7 +3440,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F81D102B-E469-4B5E-86E7-6F5F3519B13D}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C36756F2-4C4F-4AD8-8458-7E10AE15F4EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3493,35 +3479,35 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3534,20 +3520,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8765234156</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3559,7 +3545,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB8A6D92-BFEC-4360-91B0-B5AF4E529121}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{387EEAD5-3D7E-43DD-920D-0AC084E1D53B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3575,11 +3561,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -3593,20 +3579,20 @@
     <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3643,20 +3629,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="5">
-        <v>6547832546</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3686,14 +3672,14 @@
       <c r="O2">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
-        <v>60</v>
+      <c r="P2" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{42B6F9F3-12E3-4B83-9818-8CE5C14DBB5B}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{F351AAAD-32B7-4DF4-ADBE-43DA2431A7B6}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{F351AAAD-32B7-4DF4-ADBE-43DA2431A7B6}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{BD8A9202-DBEF-469B-8D80-0FAB82461947}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3709,11 +3695,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -3725,20 +3711,20 @@
     <col min="16" max="16" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3775,20 +3761,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="5">
-        <v>6547832546</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3827,8 +3813,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3B6BB931-27D5-44FA-A3D8-B7051903985F}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{CB233603-D50B-4BD6-B912-D62ABE33A4F5}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{CB233603-D50B-4BD6-B912-D62ABE33A4F5}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5313A187-D085-450A-885F-1231197AFA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3839,16 +3825,16 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -3862,20 +3848,20 @@
     <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" t="s">
@@ -3912,20 +3898,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="5">
-        <v>4678909876</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8756457685</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -3964,8 +3950,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{21146BA0-94DE-4361-93D2-DB02D52D3896}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{7097ADED-F541-4577-9EBE-1CC20D0D3C32}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{7097ADED-F541-4577-9EBE-1CC20D0D3C32}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{941A99E7-77A3-445B-8B97-A903FDD61B90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4065,10 +4051,10 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="T1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="U1" t="s">
         <v>62</v>
@@ -4086,15 +4072,15 @@
         <v>0</v>
       </c>
       <c r="Z1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="AA1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -4148,10 +4134,10 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="U2">
         <v>123456</v>
@@ -4160,19 +4146,19 @@
         <v>45534</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Z2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4207,7 +4193,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4219,8 +4205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110D6FD-E7BB-4C9B-8F8A-890516A02CB4}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4257,16 +4243,16 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4329,27 +4315,27 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Z1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AA1" t="s">
         <v>62</v>
       </c>
       <c r="AB1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D2" s="8">
         <v>8756457685</v>
@@ -4361,7 +4347,7 @@
         <v>123456</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>24</v>
@@ -4415,16 +4401,16 @@
         <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="Z2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA2">
         <v>123456</v>
       </c>
       <c r="AB2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4456,33 +4442,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4491,7 +4477,7 @@
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4523,16 +4509,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4543,13 +4529,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4591,16 +4577,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4617,13 +4603,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4707,16 +4693,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4733,13 +4719,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4792,16 +4778,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4842,13 +4828,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -4904,7 +4890,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4925,16 +4911,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
@@ -4975,13 +4961,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8">
         <v>9810995544</v>
@@ -5036,63 +5022,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B0B688-C067-4A43-B4C1-B4910B6DCB83}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="8">
-        <v>4630987055</v>
+        <v>125</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9810995544</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2988EF84-86B6-4AD8-8A30-5886BFD5135F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{706DB0F4-98A9-4693-B98D-024DEA89811B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5122,7 +5108,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -5156,15 +5142,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6415,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6526,12 +6512,12 @@
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6591,7 +6577,7 @@
         <v>36</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6606,7 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6605E610-F2F0-4733-8B9B-4273B40725C2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
@@ -6698,7 +6684,7 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
@@ -6707,16 +6693,16 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="W1" t="s">
         <v>53</v>
       </c>
       <c r="X1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Y1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Z1" t="s">
         <v>62</v>
@@ -6731,18 +6717,18 @@
         <v>61</v>
       </c>
       <c r="AD1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AE1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -6796,10 +6782,10 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="U2">
         <v>123456</v>
@@ -6808,13 +6794,13 @@
         <v>1000</v>
       </c>
       <c r="W2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="X2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Y2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z2">
         <v>123456</v>
@@ -6823,19 +6809,19 @@
         <v>45534</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AC2">
         <v>8376972313</v>
       </c>
       <c r="AD2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="AE2">
         <v>123456</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6880,7 +6866,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -6992,7 +6978,7 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
@@ -7001,16 +6987,16 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="W1" t="s">
         <v>53</v>
       </c>
       <c r="X1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Y1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Z1" t="s">
         <v>62</v>
@@ -7025,18 +7011,18 @@
         <v>61</v>
       </c>
       <c r="AD1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AE1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -7090,10 +7076,10 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="U2">
         <v>123456</v>
@@ -7102,13 +7088,13 @@
         <v>1000</v>
       </c>
       <c r="W2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="X2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Y2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z2">
         <v>123456</v>
@@ -7117,19 +7103,19 @@
         <v>45534</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AC2">
         <v>8376972313</v>
       </c>
       <c r="AD2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="AE2">
         <v>123456</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B2064-29E2-4093-A465-110A39157498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48E55D-7BD6-4EC0-9C18-0447AB832444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1980" windowWidth="17280" windowHeight="9960" firstSheet="51" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4992" yWindow="2688" windowWidth="17280" windowHeight="9960" firstSheet="52" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="143">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t>expectedErrorMessage</t>
+  </si>
+  <si>
+    <t>vendorphororEmail</t>
+  </si>
+  <si>
+    <t>vendorphoneOrEmail</t>
+  </si>
+  <si>
+    <t>RevievedOTP</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1029,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2111,373 +2120,473 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49D6504-B8C6-4E32-95E1-E521780BD3E4}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>117</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="I2" s="11">
         <v>8376972312</v>
       </c>
-      <c r="G2" s="11">
+      <c r="J2" s="11">
         <v>123456</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="6">
+      <c r="L2" s="6">
         <v>123456</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+  <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
     <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{172248EE-0843-426A-874E-500A1DEBF1CB}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C3FFB126-F9CA-414E-907C-BE59E5D6384E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32BBC2-8645-49F4-9228-D5DA6CD74BBF}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>117</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="I2" s="11">
         <v>8376972312</v>
       </c>
-      <c r="G2" s="11">
+      <c r="J2" s="11">
         <v>123456</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="6">
+      <c r="L2" s="6">
         <v>123456</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+  <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{020BD987-64F9-4FE0-946E-6FB8897A5187}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{83F6A237-F36B-4407-8269-A56633592F8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE8D4F1-8ABB-4CDC-8DEE-D901117FDFE8}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="I2" s="11">
         <v>8376972312</v>
       </c>
-      <c r="G2" s="11">
+      <c r="J2" s="11">
         <v>123456</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+  <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F368873F-9933-47D9-A686-B824060F8288}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C63DACCC-219C-46FE-A468-6C53730BA008}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5004CB2-7E7D-4C6D-A5EE-11F8BB1E791A}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
+      <c r="I2" s="11">
         <v>8376972312</v>
       </c>
-      <c r="G2" s="11">
+      <c r="J2" s="11">
         <v>123456</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A2:E2 H1:I2">
+  <conditionalFormatting sqref="K1:L2 D1:J1 D2:H2">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2230EB56-002D-48BD-B78B-30A96E6B9FBF}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E19BF313-186D-4482-97A5-83BBB3A0470F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2568,56 +2677,79 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8AB26-0B61-4C59-8DDA-093F26B52844}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8DEA92D1-C140-4050-B42E-3D1B691A34ED}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8DEA92D1-C140-4050-B42E-3D1B691A34ED}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A8EF905E-F611-43EE-840D-D64B063D19CE}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{3640B226-F458-4AD9-87CC-F54474F92D2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2625,56 +2757,79 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E503DC47-B116-4D17-AE19-50721CC0959C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9F792A1F-F435-44CF-B4C3-28CC09376CFA}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{9F792A1F-F435-44CF-B4C3-28CC09376CFA}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{EB25548C-F2B1-4C83-B78C-C1BCF9C8EE4E}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{B31D0AA3-ED25-4D27-A95B-4692210A7030}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2831,54 +2986,79 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F07CCA-8A4F-4705-A3BC-EE013FD28865}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5">
+      <c r="E2" s="5">
         <v>8828888221</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{41D40592-183A-4E14-A3BB-1F6919B3A0F9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{2213CCC3-5256-46EE-8887-7EF14BB2CD7F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3119,185 +3299,208 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C52D7E-DA4B-4987-81FF-4F055ABBBFD8}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:26">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>112233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="M2" s="2">
+      <c r="P2" s="2">
         <v>45537</v>
       </c>
-      <c r="N2" s="2">
+      <c r="Q2" s="2">
         <v>45545</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>10</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>27</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>50000</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>5</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{1850B3FD-C857-40F1-B423-F47138E75475}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{193301C6-69C5-44D8-92FC-E9F15BDD04ED}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{1850B3FD-C857-40F1-B423-F47138E75475}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{193301C6-69C5-44D8-92FC-E9F15BDD04ED}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{78324BAA-7AB1-48C4-A4C7-BAA8DA51FA44}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{E7C59F5E-DA0D-4207-98C1-08FD1EB6F6AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3305,65 +3508,88 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81813E98-D1C4-4013-89E6-5B591B0CE9C4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{401F5E3F-16A2-414B-8569-62DCC9A3D8B7}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{401F5E3F-16A2-414B-8569-62DCC9A3D8B7}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{7F107BAE-62BB-4AE2-ABF0-6B678488368F}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{1B0A52E8-DE90-4C0F-8E82-A7D7BBA969FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3371,76 +3597,99 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0834A119-F09C-48DA-8867-7EB5777391E7}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C36756F2-4C4F-4AD8-8458-7E10AE15F4EC}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C36756F2-4C4F-4AD8-8458-7E10AE15F4EC}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{D687A2C1-CFF7-44A2-B644-30CC430D83B8}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{E0FC454E-98D5-4748-8B4A-6E0ECF751BB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3476,76 +3725,99 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39026464-7D8D-41F2-BDDB-85661F9F3AE1}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{387EEAD5-3D7E-43DD-920D-0AC084E1D53B}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{387EEAD5-3D7E-43DD-920D-0AC084E1D53B}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{06DD7481-D730-452D-8A0D-A46C34DAE660}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{8842F99C-5915-42BF-AD2B-E9717C7A842A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3553,133 +3825,156 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAFF7CB-EE50-4142-8865-333ED5F466FF}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>112233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>50</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{F351AAAD-32B7-4DF4-ADBE-43DA2431A7B6}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{BD8A9202-DBEF-469B-8D80-0FAB82461947}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{F351AAAD-32B7-4DF4-ADBE-43DA2431A7B6}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{BD8A9202-DBEF-469B-8D80-0FAB82461947}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{F6FC576F-91F4-4956-8F26-FA731E8A0E3A}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{0F19FC7B-C627-4CCE-A99D-0D9FB7E1D90A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3687,134 +3982,157 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76D7EC-F434-4638-ABDC-C5C74F9D35AE}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>112233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{CB233603-D50B-4BD6-B912-D62ABE33A4F5}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{5313A187-D085-450A-885F-1231197AFA0A}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{CB233603-D50B-4BD6-B912-D62ABE33A4F5}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{5313A187-D085-450A-885F-1231197AFA0A}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{FD270866-9F7F-4323-8107-F0A9060B2D6A}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{5B9AF754-3D85-456D-8F6A-E1F1A1ACA0E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3822,136 +4140,159 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA73E5F2-1FE0-463D-A024-831C739601AA}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>8756457685</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>112233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{7097ADED-F541-4577-9EBE-1CC20D0D3C32}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{941A99E7-77A3-445B-8B97-A903FDD61B90}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{7097ADED-F541-4577-9EBE-1CC20D0D3C32}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{941A99E7-77A3-445B-8B97-A903FDD61B90}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{C1915708-3F44-4440-A47A-F94C1DE1639B}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{78B43801-A2F8-4CE5-9C25-07666B9F6202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5020,65 +5361,88 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B0B688-C067-4A43-B4C1-B4910B6DCB83}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="8">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="8">
+      <c r="G2" s="8">
         <v>9810995544</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{706DB0F4-98A9-4693-B98D-024DEA89811B}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{706DB0F4-98A9-4693-B98D-024DEA89811B}"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="mailto:test@agency.com" display="mailto:test@agency.com" xr:uid="{D9D036CD-BB47-4509-8C8D-78E767EB3EC7}"/>
+    <hyperlink ref="C2" r:id="rId3" tooltip="https://demo.workorbits.com/dashboard/ongoing" xr:uid="{A2AA28C0-AD62-409F-BF25-CABBFD3FF88A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6590,247 +6954,270 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6605E610-F2F0-4733-8B9B-4273B40725C2}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>94</v>
       </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>112233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45545</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>50000</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="V1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>112233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45537</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45545</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2">
-        <v>50000</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="T2">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <v>123456</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>1000</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>129</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>123456</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AD2" s="3">
         <v>45534</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>8376972313</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>127</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <v>123456</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AI2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA1:AB2">
+  <conditionalFormatting sqref="AD1:AE2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{C709A1EE-64C3-418C-B44C-F820AF20129A}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{0FBB61E9-4EB9-436B-8B22-019DF03FD74A}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{C709A1EE-64C3-418C-B44C-F820AF20129A}"/>
+    <hyperlink ref="W2" r:id="rId2" xr:uid="{0FBB61E9-4EB9-436B-8B22-019DF03FD74A}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{DD5AE0E5-F59B-4D17-B83E-D1DCE28D4F20}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{7DC7749B-B3F7-4EB8-8D32-1F2662E27E9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6841,7 +7228,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6887,244 +7274,260 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49773F7F-0874-49C9-AF89-9477015DE8FC}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>94</v>
       </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" t="s">
         <v>1</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>128</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>130</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
+    <row r="2" spans="1:34">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>112233</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>45537</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>45545</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>50000</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>123456</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>1000</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>129</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>123456</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AC2" s="3">
         <v>45534</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>8376972313</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>127</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>123456</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AH2" s="14" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA1:AB2">
+  <conditionalFormatting sqref="AC1:AD2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{F7E15DAF-7F55-4351-9DD8-18B9D491313D}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{02572273-C570-4EEF-A61D-13323DD235A7}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{F7E15DAF-7F55-4351-9DD8-18B9D491313D}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{02572273-C570-4EEF-A61D-13323DD235A7}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{97845194-0B14-40FD-A6CB-6DCB0989C008}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{AF1DDD1A-0CF7-4AF7-B4FD-EC0161573703}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apptad\eclipse-workspace\Test\AutomationProject\Apptad-AutomationProject\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8EE4AC-E489-465A-B45F-5E23A0123337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2259B8-14DE-4F24-A9AE-9BD907FFFAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="92" activeTab="92" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5424" yWindow="3540" windowWidth="17280" windowHeight="9960" firstSheet="147" activeTab="148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -159,6 +159,16 @@
     <sheet name="validation_On_NewPassword" sheetId="11" r:id="rId144"/>
     <sheet name="validation_On_InvalidPassword" sheetId="151" r:id="rId145"/>
     <sheet name="validation_On_EmptyEmailPh" sheetId="152" r:id="rId146"/>
+    <sheet name="CreateWorkorderforCientsAgency" sheetId="183" r:id="rId147"/>
+    <sheet name="ClientProjectWorkorder" sheetId="184" r:id="rId148"/>
+    <sheet name="ClientProjectWorkorderApproval" sheetId="193" r:id="rId149"/>
+    <sheet name="CreateWorkorderInvalidStartTime" sheetId="185" r:id="rId150"/>
+    <sheet name="CreateWorkorderInvalidEndTime" sheetId="186" r:id="rId151"/>
+    <sheet name="CreateWorkorderInvalidLocation" sheetId="188" r:id="rId152"/>
+    <sheet name="CreateWorkorderInvalidDate" sheetId="189" r:id="rId153"/>
+    <sheet name="CreateWorkorderNameError" sheetId="190" r:id="rId154"/>
+    <sheet name="CreateWorkorderPhoneError" sheetId="191" r:id="rId155"/>
+    <sheet name="CreateWorkorderEmailError" sheetId="192" r:id="rId156"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -170,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="265">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -955,6 +965,18 @@
   </si>
   <si>
     <t>Please enter valid company name</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>EnterpriseEmail</t>
+  </si>
+  <si>
+    <t>ExpectedMessageResult</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -962,8 +984,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1129,9 +1151,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1163,7 +1185,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1746,20 +1798,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1840,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="28.8">
       <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
@@ -1835,28 +1887,28 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1991,24 +2043,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2129,10 +2181,10 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2164,12 +2216,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2232,14 +2284,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2299,14 +2351,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2347,10 +2399,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2382,10 +2434,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2417,13 +2469,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2476,13 +2528,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2535,14 +2587,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2601,30 +2653,30 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2683,7 +2735,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2761,12 +2813,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2825,12 +2877,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2889,13 +2941,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2954,11 +3006,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3000,10 +3052,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3044,10 +3096,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3088,10 +3140,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3132,11 +3184,11 @@
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.85546875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3153,7 +3205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3183,11 +3235,11 @@
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3204,7 +3256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3234,14 +3286,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3267,7 +3319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3292,7 +3344,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6B0936EA-1982-4A1F-BB2B-2EFAD7EAA0DF}"/>
@@ -3309,39 +3361,39 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -3560,7 +3612,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AD1:AE2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{2E23724F-9C7E-492A-9416-5F0DDA676034}"/>
@@ -3580,10 +3632,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3624,11 +3676,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3676,11 +3728,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3727,12 +3779,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3779,13 +3831,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3844,13 +3896,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3909,13 +3961,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3974,14 +4026,14 @@
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4047,14 +4099,14 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4119,10 +4171,10 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4151,35 +4203,35 @@
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -4392,7 +4444,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC1:AD2">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{0BFAE797-9CB7-4402-8F87-D60F6640FF10}"/>
@@ -4412,10 +4464,10 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4447,10 +4499,10 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4482,11 +4534,11 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4524,10 +4576,10 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4571,13 +4623,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4627,10 +4679,10 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4672,11 +4724,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4718,11 +4770,11 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4764,11 +4816,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4858,10 +4910,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4894,23 +4946,23 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4951,7 +5003,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -4994,7 +5046,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{844409B9-4518-416E-88B9-E71A345CFB12}"/>
@@ -5012,11 +5064,11 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5065,9 +5117,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5093,11 +5145,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5139,10 +5191,10 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5184,10 +5236,10 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5235,10 +5287,10 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5280,9 +5332,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="52.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5300,6 +5352,619 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B48A861-780C-4698-A363-2B5965E5FBDF}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:F2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D8729A09-0592-4A14-9550-D4078BDE0145}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6620C9-B542-4A79-900B-A03AAE03CBE7}">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection sqref="A1:AJ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="28.8">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8756457685</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="10">
+        <v>123456</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="10">
+        <v>112233</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="10">
+        <v>3</v>
+      </c>
+      <c r="P2" s="12">
+        <v>45537</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>45545</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="10">
+        <v>10</v>
+      </c>
+      <c r="T2" s="10">
+        <v>50</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="10">
+        <v>50000</v>
+      </c>
+      <c r="X2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2">
+        <v>123456</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AE1:AG2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{79EEEF3E-4ED6-432F-B6CA-AC81BEC9534C}"/>
+    <hyperlink ref="M2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{B7B59B78-688B-4827-B3E7-C05003B8C24A}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{26F9F0D4-837C-45E7-B0AE-5CA32677E4A1}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{96C78857-1FD7-4C2F-AD6F-8C5C2800A529}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D6E707-CBE9-4EC6-94BE-F1EEE72A82AF}">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="43.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="72">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8756457685</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="10">
+        <v>123456</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="10">
+        <v>112233</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="10">
+        <v>3</v>
+      </c>
+      <c r="P2" s="12">
+        <v>45537</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>45545</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="10">
+        <v>10</v>
+      </c>
+      <c r="T2" s="10">
+        <v>50</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="10">
+        <v>50000</v>
+      </c>
+      <c r="X2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2">
+        <v>123456</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AE1:AG2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BD801DDD-B84A-4786-A6D0-0EB1217C2202}"/>
+    <hyperlink ref="M2" r:id="rId2" tooltip="https://www.youtube.com/" xr:uid="{0225A0F0-1A32-43FF-BEE7-8F67EE9B68C3}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{A04061A9-AA68-4447-BC8B-9707F05866B6}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{9BF52812-B354-4801-8970-FB60FC96D746}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F7D4D-F35A-4A50-9122-58E813A1D08A}">
   <dimension ref="A1:M2"/>
@@ -5308,23 +5973,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5365,7 +6030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5408,7 +6073,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{09430D94-2145-44CA-9915-005A517E8C23}"/>
@@ -5418,6 +6083,502 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE2FD1A-96F9-4A9F-BD41-8718E7C75A1E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E010AC38-8142-4B38-AC8F-AF0859F93AB3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A021381-1600-4587-AB3E-9194ACD74F26}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4D57805C-3CD8-45B7-9211-F59F73E8A590}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{03A1E932-EDC9-4782-B35F-6311E1281EF7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3063C8-BEEC-49DE-8651-8F0D0B0319C5}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB1A4FB9-522D-48E9-826E-4F521AE7D7B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA34E1D-C2B3-48EE-A752-698F37E8B93B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F3854BEA-4DF9-494A-AEB1-77A85C3F22A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DA20B3-923D-47B4-BE65-2AD25F78AC64}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9">
+        <v>9722288802</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{EB96D99A-1D6D-4786-A05B-6A72F8CDA91E}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{67529089-0712-46BC-9724-90A2086CB856}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{14689D84-CE81-4569-A31D-8AFFB9AF491E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF3A06E-9CCE-427D-BB59-9A250BE03651}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1F9D1842-CD4D-49EC-95DE-1CE20854C8E0}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{C9FE4410-7E2C-4F41-8BEA-FBA4F10E43D0}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{C5C076E5-52E9-4866-A510-B2597AA7192B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C740F3D-6269-464F-8D99-1FB1178DC0F5}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="9">
+        <v>8828888221</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5D2C2544-D0AD-44B7-8704-59E2DD04F0EA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{16A94B98-25C5-4FD0-8582-7BBF3BC7E0D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE43C135-7B06-42FD-95AB-6750E7B25159}">
   <dimension ref="A1:M2"/>
@@ -5426,23 +6587,23 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5483,7 +6644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5526,7 +6687,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L2 D1:J1 D2:H2">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BE94A0D7-0410-452E-9BE2-20E4DF1AFF22}"/>
@@ -5544,23 +6705,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5601,7 +6762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5644,7 +6805,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{14FC3AB9-B453-46CA-863D-33761C323DDC}"/>
@@ -5663,17 +6824,17 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>222</v>
       </c>
@@ -5693,7 +6854,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
+    <row r="2" spans="1:6" ht="17.399999999999999">
       <c r="A2" s="20" t="s">
         <v>218</v>
       </c>
@@ -5715,10 +6876,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F2">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0A9FF332-F266-4F06-BD9A-1772A62329B6}"/>
@@ -5735,17 +6896,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>222</v>
       </c>
@@ -5765,7 +6926,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
+    <row r="2" spans="1:6" ht="17.399999999999999">
       <c r="A2" s="20" t="s">
         <v>218</v>
       </c>
@@ -5787,13 +6948,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E2">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{57223C36-ABF7-4C5E-972E-0360280AE7A2}"/>
@@ -5807,22 +6968,22 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+      <selection activeCell="D1" sqref="D1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5848,7 +7009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5890,12 +7051,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5948,13 +7109,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6004,26 +7165,26 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -6192,12 +7353,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6245,11 +7406,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6298,14 +7459,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6362,11 +7523,11 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6423,19 +7584,19 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6541,22 +7702,22 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6665,22 +7826,22 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -6785,23 +7946,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359B2F62-F132-4E89-9F4A-75FB8FD53BCD}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6811,23 +7972,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -6837,15 +7998,15 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>165</v>
+      <c r="D2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="10">
+        <v>8756457685</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -6853,9 +8014,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{5733ADE3-B912-444B-A1A1-43EA7A2EDC6A}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{211DBFC5-67C6-4EEA-B8F4-8E62547F79E9}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{6F55339C-262A-4959-AF59-3FE45451C2DF}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{211DBFC5-67C6-4EEA-B8F4-8E62547F79E9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{6F55339C-262A-4959-AF59-3FE45451C2DF}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{288BE2E1-1AFC-4675-963D-18FF25748728}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6865,41 +8026,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8440E1FB-2C78-4BD0-BE8F-157B06AF33D6}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="18">
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -6982,7 +8143,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75">
+    <row r="2" spans="1:27" ht="15.6">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -7067,7 +8228,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{608C7CC8-F075-4A70-BD0C-9C5F01AE4F00}"/>
@@ -7085,12 +8246,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="114.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7139,15 +8300,15 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7216,20 +8377,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0A80E8-4C3C-4F95-B00E-FD8CBCF9E712}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7296,20 +8457,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BD1B37-7E9F-4BB0-AB9B-2424A33E7C61}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7376,20 +8537,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8996105-C10F-48B5-B3E2-C75B176AA833}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7456,17 +8617,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7491,7 +8652,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7511,11 +8672,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A48CA74E-2140-410C-8B8C-C72C135C45F1}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{C29BB4E8-D791-4E75-A159-A6681271ABE8}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C29BB4E8-D791-4E75-A159-A6681271ABE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7529,13 +8689,13 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7560,7 +8720,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7580,8 +8740,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{221C7F29-FB7B-4BF4-8275-C49EF2C1B379}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{D552B5AB-1A9D-4BD9-8C9A-C0CA4E6414BB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D552B5AB-1A9D-4BD9-8C9A-C0CA4E6414BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7592,14 +8751,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7624,7 +8784,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7641,8 +8801,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B075978B-5F14-4568-B1DA-5543A369B8D5}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{B8EB906E-100B-4C1A-9F8D-A31FFE175785}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B8EB906E-100B-4C1A-9F8D-A31FFE175785}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7653,14 +8812,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7685,7 +8847,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7702,8 +8864,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C45DDA33-6279-4848-96B2-ADEE0CEB2117}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{DF39D5B9-EA73-40C3-B1EF-1DA9264F3A7F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DF39D5B9-EA73-40C3-B1EF-1DA9264F3A7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7714,22 +8875,22 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7739,23 +8900,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -7765,15 +8926,15 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="21">
-        <v>8828888221</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="21" t="s">
-        <v>165</v>
+      <c r="D2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
+        <v>8756457685</v>
       </c>
       <c r="H2" t="s">
         <v>55</v>
@@ -7793,13 +8954,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+      <selection activeCell="D12" sqref="C11:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7824,7 +8986,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13">
         <v>123456</v>
@@ -7852,43 +9014,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6AEB6D-6BCD-4D15-B868-8FB12382B1F9}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection sqref="A1:AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="30">
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7980,7 +9142,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="30">
+    <row r="2" spans="1:30" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8091,19 +9253,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8132,7 +9294,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8179,15 +9341,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -8221,7 +9383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8267,21 +9429,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8316,7 +9478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8365,22 +9527,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8415,7 +9577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8464,29 +9626,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8545,7 +9707,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8622,25 +9784,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8699,7 +9861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -8776,27 +9938,27 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8940,10 +10102,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8982,37 +10144,37 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9092,7 +10254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -9191,13 +10353,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9244,21 +10406,21 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9360,19 +10522,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9461,20 +10623,20 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9575,21 +10737,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9690,13 +10852,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9743,12 +10905,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9796,13 +10958,13 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9862,13 +11024,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9928,14 +11090,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9992,20 +11154,20 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10034,7 +11196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -10081,12 +11243,12 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10135,12 +11297,12 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10189,12 +11351,12 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10243,14 +11405,14 @@
       <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10301,10 +11463,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{42855C14-FC85-4C1C-AB4D-7250C8919402}"/>
@@ -10322,14 +11484,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10380,10 +11542,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7AD5D74A-9765-48B8-AC31-50E848625BC3}"/>
@@ -10401,14 +11563,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10459,10 +11621,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{05C1878F-C482-4723-8A0A-0F5B4B980DA8}"/>
@@ -10480,14 +11642,14 @@
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10538,10 +11700,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B3BB0B30-9B36-4021-9B97-7B125847F859}"/>
@@ -10559,14 +11721,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10617,10 +11779,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{46346B06-5FDD-43E4-AA51-EA93781CBE3F}"/>
@@ -10638,14 +11800,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10696,10 +11858,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5C5714FD-5F67-4416-BDC2-45A85C6BAD58}"/>
@@ -10717,14 +11879,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10775,10 +11937,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{57B46F63-9A1E-4F83-AD1C-A736E9F1DD80}"/>
@@ -10796,22 +11958,22 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10846,7 +12008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -10896,14 +12058,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10954,10 +12116,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{AF23535F-A70C-407A-BB87-F15913EFEB88}"/>
@@ -10975,16 +12137,16 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11068,20 +12230,20 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="47.5703125" customWidth="1"/>
+    <col min="13" max="13" width="47.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -11184,13 +12346,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11250,15 +12412,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11339,16 +12501,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11420,16 +12582,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11507,16 +12669,16 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11625,16 +12787,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11712,16 +12874,16 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11799,22 +12961,22 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11849,7 +13011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -11899,14 +13061,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11972,14 +13134,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12045,12 +13207,12 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12123,12 +13285,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12175,26 +13337,26 @@
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -12262,7 +13424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30">
+    <row r="2" spans="1:21" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12345,12 +13507,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12398,14 +13560,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12462,22 +13624,22 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -12587,21 +13749,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12699,22 +13861,22 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -12823,30 +13985,30 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12905,7 +14067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -12980,22 +14142,22 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13104,14 +14266,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13168,30 +14330,30 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -13363,33 +14525,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EE7AF-96C6-4B6B-BF97-DB046463D90C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -13552,12 +14714,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13605,14 +14767,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13669,14 +14831,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13733,22 +14895,22 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13857,22 +15019,22 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13981,22 +15143,22 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2259B8-14DE-4F24-A9AE-9BD907FFFAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD98AC15-4BAD-40E8-8554-6C223F83F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5424" yWindow="3540" windowWidth="17280" windowHeight="9960" firstSheet="147" activeTab="148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD98AC15-4BAD-40E8-8554-6C223F83F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B34327-98FC-4510-BA30-A0B09E9CC912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="3540" windowWidth="17280" windowHeight="9960" firstSheet="147" activeTab="148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4404" yWindow="1632" windowWidth="17280" windowHeight="9960" firstSheet="164" activeTab="165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -169,6 +169,16 @@
     <sheet name="CreateWorkorderNameError" sheetId="190" r:id="rId154"/>
     <sheet name="CreateWorkorderPhoneError" sheetId="191" r:id="rId155"/>
     <sheet name="CreateWorkorderEmailError" sheetId="192" r:id="rId156"/>
+    <sheet name="WorkOrderApprovalEnterprise" sheetId="195" r:id="rId157"/>
+    <sheet name="InvalidFieldNameWorkorder" sheetId="196" r:id="rId158"/>
+    <sheet name="InvalidFrequencyWorkorder" sheetId="197" r:id="rId159"/>
+    <sheet name="InvalidRadiusWorkorder" sheetId="198" r:id="rId160"/>
+    <sheet name="InvalidQuoteWorkorder" sheetId="199" r:id="rId161"/>
+    <sheet name="InvalidTermsWorkorder" sheetId="200" r:id="rId162"/>
+    <sheet name="InvalidLocationWorkorder" sheetId="201" r:id="rId163"/>
+    <sheet name="InvalidDateWorkorder" sheetId="202" r:id="rId164"/>
+    <sheet name="InvalidStarttimeWorkorder" sheetId="203" r:id="rId165"/>
+    <sheet name="InvalidEndtimeWorkorder" sheetId="204" r:id="rId166"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -180,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="268">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -977,6 +987,15 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>Please select valid quote valid till</t>
+  </si>
+  <si>
+    <t>Please enter valid terms</t>
+  </si>
+  <si>
+    <t>ExpectedtermsResult</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1006,7 @@
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,6 +1140,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1143,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1180,12 +1204,63 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3344,7 +3419,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6B0936EA-1982-4A1F-BB2B-2EFAD7EAA0DF}"/>
@@ -3612,7 +3687,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AD1:AE2">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{2E23724F-9C7E-492A-9416-5F0DDA676034}"/>
@@ -4444,7 +4519,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC1:AD2">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{0BFAE797-9CB7-4402-8F87-D60F6640FF10}"/>
@@ -5046,7 +5121,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{844409B9-4518-416E-88B9-E71A345CFB12}"/>
@@ -5433,7 +5508,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D8729A09-0592-4A14-9550-D4078BDE0145}"/>
@@ -5706,7 +5781,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE1:AG2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{79EEEF3E-4ED6-432F-B6CA-AC81BEC9534C}"/>
@@ -5722,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D6E707-CBE9-4EC6-94BE-F1EEE72A82AF}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -5953,7 +6028,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE1:AG2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{BD801DDD-B84A-4786-A6D0-0EB1217C2202}"/>
@@ -6073,7 +6148,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{09430D94-2145-44CA-9915-005A517E8C23}"/>
@@ -6579,6 +6654,452 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F0B2F4-047B-4272-BBC7-EB74B3867E5F}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.399999999999999">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.6">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2" s="16">
+        <v>45534</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8EFD11BE-7842-4001-BF06-9E2A03A215BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D972AD-E594-49FA-8899-3B7257EB8B2F}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>112233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{A9FAAD29-6507-42A5-8A59-FB1D9F4D0C1D}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{D10033B4-6E81-48A2-9585-95B4DA24711B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D9E835-1CF7-4778-AEF6-31C21134834F}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>112233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{E2F51A3C-1D70-4B20-8382-8DAB0621B6AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE43C135-7B06-42FD-95AB-6750E7B25159}">
   <dimension ref="A1:M2"/>
@@ -6687,11 +7208,1179 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L2 D1:J1 D2:H2">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BE94A0D7-0410-452E-9BE2-20E4DF1AFF22}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{C31A25F6-8FE9-4140-AA5F-7A642F089A43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet160.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16363CA8-BBF5-417B-B68D-D6CC27B45294}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>112233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{FDBE5125-FCE3-47FC-BE8C-4BB34E0A06EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98210AC1-DFFE-49EB-A969-54F58EDEF08C}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>112233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2">
+        <v>50000</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{F3249203-384F-429B-8A94-1BB1B82C4F14}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{ACC94EC6-13BA-4EFB-B230-A92208030638}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{2CECCC39-9F8C-467C-915D-D759F9C9BA5B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE567E-2364-4F64-B743-9361C4C31C66}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>112233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2">
+        <v>50000</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{1133929E-1BCD-4A53-8E67-E566F5BA844C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A7EAB2A6-4EAD-4C13-A171-5BBF6549BC7A}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{3047D12D-7AC5-4F87-8BDA-59EE4B814E04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F552DD-4358-4113-8E23-30B554DB9E0F}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="V2" t="s">
+        <v>180</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="14"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E40B2F07-6B5B-4069-B6D8-6BF264DB2927}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665E3AA7-CFE3-4CD1-9607-6424F9CB5837}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{65A2EF95-BD55-41A9-9797-CF10D01B74B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4612362F-1EE6-45A1-BCEE-CE2608F6720E}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{AAE3F4FE-CA33-4EA9-9CB2-B49F515725F8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360695DF-45A8-4981-840F-BD8B6D207950}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45537</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>50000</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2">
+        <v>123456</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:X2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{52770C70-9CEB-4C36-8D40-DB314A2BBBBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6805,7 +8494,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1 D2:H2 K1:L2">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{14FC3AB9-B453-46CA-863D-33761C323DDC}"/>
@@ -6876,10 +8565,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F2">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0A9FF332-F266-4F06-BD9A-1772A62329B6}"/>
@@ -6948,13 +8637,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E2">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{57223C36-ABF7-4C5E-972E-0360280AE7A2}"/>
@@ -7161,8 +8850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA97BF87-4E2F-43C5-8890-D5F49A3A337E}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8026,8 +9715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8440E1FB-2C78-4BD0-BE8F-157B06AF33D6}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AA2"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8228,7 +9917,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{608C7CC8-F075-4A70-BD0C-9C5F01AE4F00}"/>
@@ -8672,7 +10361,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:F2">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C29BB4E8-D791-4E75-A159-A6681271ABE8}"/>
@@ -8686,7 +10375,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8751,12 +10440,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="F2" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
@@ -8812,7 +10502,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8954,12 +10644,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="C11:D12"/>
+      <selection activeCell="D1" sqref="D1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10403,7 +12094,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B1" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10619,8 +12310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE2FE2E-7F9A-4BD7-AF17-BD45E0B98CA5}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10733,8 +12424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06398D3B-89DE-48F0-AA63-A392FFB90D4F}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11463,10 +13154,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{42855C14-FC85-4C1C-AB4D-7250C8919402}"/>
@@ -11542,10 +13233,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7AD5D74A-9765-48B8-AC31-50E848625BC3}"/>
@@ -11621,10 +13312,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{05C1878F-C482-4723-8A0A-0F5B4B980DA8}"/>
@@ -11700,10 +13391,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B3BB0B30-9B36-4021-9B97-7B125847F859}"/>
@@ -11779,10 +13470,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{46346B06-5FDD-43E4-AA51-EA93781CBE3F}"/>
@@ -11858,10 +13549,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5C5714FD-5F67-4416-BDC2-45A85C6BAD58}"/>
@@ -11937,10 +13628,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{57B46F63-9A1E-4F83-AD1C-A736E9F1DD80}"/>
@@ -12116,10 +13807,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E2">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{AF23535F-A70C-407A-BB87-F15913EFEB88}"/>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B34327-98FC-4510-BA30-A0B09E9CC912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40374F-8751-4507-8F68-325E0AF85E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="1632" windowWidth="17280" windowHeight="9960" firstSheet="164" activeTab="165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2664" windowWidth="17280" windowHeight="9960" firstSheet="87" activeTab="87" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="268">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -8220,7 +8220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360695DF-45A8-4981-840F-BD8B6D207950}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
@@ -15436,8 +15436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3278CAFD-9A27-473E-9569-89143A17400C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15526,9 +15526,6 @@
       </c>
       <c r="J2">
         <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
       </c>
       <c r="L2" t="s">
         <v>89</v>
@@ -16582,8 +16579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05675AB3-9AB3-485F-8257-8FEE60144F2F}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16650,7 +16647,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -16678,9 +16675,6 @@
       </c>
       <c r="J2">
         <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>214</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -16695,8 +16689,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{8F54D2E0-433A-4B69-9B1A-86B94C61D80D}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{869557AD-4A1C-483B-A8A2-D0A685768CCC}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{E07C407E-9231-4655-BC04-2DED64A24BF4}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E07C407E-9231-4655-BC04-2DED64A24BF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40374F-8751-4507-8F68-325E0AF85E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38824CB-7832-4972-90C8-EFA24A3DA223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2664" windowWidth="17280" windowHeight="9960" firstSheet="87" activeTab="87" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4824" yWindow="1200" windowWidth="17280" windowHeight="9960" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="269">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>ExpectedtermsResult</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -9269,8 +9272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D490BC-D541-4DC5-9963-1BB253571DEC}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9362,6 +9365,9 @@
       </c>
       <c r="J2">
         <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>207</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -12093,8 +12099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0175D5FA-82E8-44A1-8A39-DAE52461699A}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:M2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15436,8 +15442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3278CAFD-9A27-473E-9569-89143A17400C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15526,6 +15532,9 @@
       </c>
       <c r="J2">
         <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>214</v>
       </c>
       <c r="L2" t="s">
         <v>89</v>
@@ -15669,8 +15678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86468C-695C-4872-9C6E-0F9FE7D0B60B}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15800,6 +15809,9 @@
       </c>
       <c r="O2">
         <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>207</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -16580,7 +16592,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16675,6 +16687,9 @@
       </c>
       <c r="J2">
         <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>268</v>
       </c>
       <c r="L2">
         <v>10</v>

--- a/target/test-classes/testData/testData.xlsx
+++ b/target/test-classes/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Test\Apptad-AutomationProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38824CB-7832-4972-90C8-EFA24A3DA223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962E805F-2690-4ACF-AE57-9767EFE57C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="1200" windowWidth="17280" windowHeight="9960" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6612" yWindow="3408" windowWidth="17280" windowHeight="9960" firstSheet="154" activeTab="155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectClientInvalidEnterprise" sheetId="175" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="270">
   <si>
     <t>phoneOrEmail</t>
   </si>
@@ -986,9 +986,6 @@
     <t>ExpectedMessageResult</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>Please select valid quote valid till</t>
   </si>
   <si>
@@ -999,6 +996,12 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -6421,7 +6424,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6429,7 +6432,7 @@
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
@@ -6447,16 +6450,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>122</v>
@@ -6472,15 +6475,17 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9">
-        <v>9722288802</v>
+      <c r="D2" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>165</v>
+      <c r="G2" s="9">
+        <v>2345673654</v>
       </c>
       <c r="H2" t="s">
         <v>52</v>
@@ -6501,7 +6506,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D1" sqref="D1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6509,8 +6514,8 @@
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
@@ -6527,16 +6532,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>122</v>
@@ -6553,14 +6558,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>230</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>165</v>
+      <c r="G2" s="9">
+        <v>2345673654</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -6568,9 +6575,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{1F9D1842-CD4D-49EC-95DE-1CE20854C8E0}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{C9FE4410-7E2C-4F41-8BEA-FBA4F10E43D0}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{C5C076E5-52E9-4866-A510-B2597AA7192B}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C9FE4410-7E2C-4F41-8BEA-FBA4F10E43D0}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C5C076E5-52E9-4866-A510-B2597AA7192B}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{D0C8D64C-EEF0-4236-BEB7-CDC627073867}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6580,8 +6587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C740F3D-6269-464F-8D99-1FB1178DC0F5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6589,10 +6596,10 @@
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6607,16 +6614,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>122</v>
@@ -6633,16 +6640,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="9">
-        <v>8828888221</v>
+        <v>230</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2345673654</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>114</v>
@@ -6652,6 +6659,7 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5D2C2544-D0AD-44B7-8704-59E2DD04F0EA}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{16A94B98-25C5-4FD0-8582-7BBF3BC7E0D9}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{7C57FAD0-D832-4731-9AED-852E7C35A3B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7504,7 +7512,7 @@
         <v>100</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7614,7 +7622,7 @@
         <v>96</v>
       </c>
       <c r="W1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7685,7 +7693,7 @@
         <v>100</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -9272,7 +9280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D490BC-D541-4DC5-9963-1BB253571DEC}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -16689,7 +16697,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L2">
         <v>10</v>
